--- a/DataTables/Datas/language.xlsx
+++ b/DataTables/Datas/language.xlsx
@@ -271,10 +271,10 @@
     <t>Get a</t>
   </si>
   <si>
-    <t>防御等级+1</t>
-  </si>
-  <si>
-    <t>Armor Class +1</t>
+    <t>防御等级+</t>
+  </si>
+  <si>
+    <t>Armor Class +</t>
   </si>
   <si>
     <t>免疫致命一击</t>
@@ -283,10 +283,10 @@
     <t>Immune Critical Hit</t>
   </si>
   <si>
-    <t>零级命中率+1</t>
-  </si>
-  <si>
-    <t>Thac0 +1</t>
+    <t>零级命中率+</t>
+  </si>
+  <si>
+    <t>Thac0 +</t>
   </si>
   <si>
     <t>致命一击点数-1</t>
@@ -298,28 +298,28 @@
     <t>Critical Hit Roll -1 (19 or 20)</t>
   </si>
   <si>
-    <t>生命值+10</t>
-  </si>
-  <si>
-    <t>Health +10</t>
-  </si>
-  <si>
-    <t>每回合额外攻击1次</t>
-  </si>
-  <si>
-    <t>Attack per round +1</t>
-  </si>
-  <si>
-    <t>受到伤害-1</t>
-  </si>
-  <si>
-    <t>Damage reduced 1</t>
-  </si>
-  <si>
-    <t>攻击力+1</t>
-  </si>
-  <si>
-    <t>Attack +1</t>
+    <t>生命值+</t>
+  </si>
+  <si>
+    <t>Health +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每回合攻击次数: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack per round: </t>
+  </si>
+  <si>
+    <t>受到伤害-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage reduced </t>
+  </si>
+  <si>
+    <t>攻击力+</t>
+  </si>
+  <si>
+    <t>Attack +</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataTables/Datas/language.xlsx
+++ b/DataTables/Datas/language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -119,6 +119,66 @@
   </si>
   <si>
     <t>Blue Dragon</t>
+  </si>
+  <si>
+    <t>绿龙</t>
+  </si>
+  <si>
+    <t>Green Dragon</t>
+  </si>
+  <si>
+    <t>银龙</t>
+  </si>
+  <si>
+    <t>Silver Dragon</t>
+  </si>
+  <si>
+    <t>棕龙</t>
+  </si>
+  <si>
+    <t>Brown Dragon</t>
+  </si>
+  <si>
+    <t>黑龙</t>
+  </si>
+  <si>
+    <t>Black Dragon</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>Werewolf</t>
+  </si>
+  <si>
+    <t>树人</t>
+  </si>
+  <si>
+    <t>Treant</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>巫妖</t>
+  </si>
+  <si>
+    <t>Lich</t>
   </si>
   <si>
     <t>等级</t>
@@ -1274,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1550,9 +1610,15 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:24">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -1577,13 +1643,13 @@
     <row r="10" s="1" customFormat="1" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -1609,13 +1675,13 @@
     <row r="11" s="1" customFormat="1" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1641,13 +1707,13 @@
     <row r="12" s="1" customFormat="1" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1673,13 +1739,13 @@
     <row r="13" s="1" customFormat="1" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1705,13 +1771,13 @@
     <row r="14" s="1" customFormat="1" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1737,13 +1803,13 @@
     <row r="15" s="1" customFormat="1" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -1768,9 +1834,15 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:24">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -1792,301 +1864,609 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" s="1" customFormat="1" spans="1:24">
+      <c r="A17"/>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>35</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:24">
+      <c r="A18"/>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>37</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:24">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:24">
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>39</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:24">
+      <c r="A21"/>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>41</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:24">
+      <c r="A22"/>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <v>43</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:24">
+      <c r="A23"/>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>45</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:24">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:24">
+      <c r="A25"/>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:24">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
